--- a/Outputs/3. Prosumer percentage/Output Files/100/Output_6_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/100/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1175278.259057899</v>
+        <v>1164248.9095989</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074005</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797167</v>
+        <v>278692.0725916854</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7008088.501158556</v>
+        <v>7103779.214303265</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>209.9048653462154</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>131.0340291195821</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -834,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>54.66258501924847</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>273.307971538176</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>163.2300524784337</v>
+        <v>419.2542813063204</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>34.06158462964364</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>20.73696989209172</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>168.1589972036696</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1150,10 +1150,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>36.97715937730158</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>134.8238954239898</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1375,7 +1375,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1426,13 +1426,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>245.5511361213023</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1530,16 +1530,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>144.1266108076383</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1624,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>175.4475408461118</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1785,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>46.2253027104011</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>209.9324537163696</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765192</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2098,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2134,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>131.9969996527497</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790299</v>
+        <v>16.92574903169355</v>
       </c>
     </row>
     <row r="23">
@@ -2478,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>30.11288841831338</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2724,7 +2724,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>54.49360828358933</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2733,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -3009,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>86.91406253606259</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>27.97358346682158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3207,7 +3207,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>101.2878188239679</v>
+        <v>34.71811217257828</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3438,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3556,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>61.43755362246745</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3802,7 +3802,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>289.602966398842</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>64.34965323462538</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>22.28782598961422</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>54.66258501924893</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>752.2549115535338</v>
+        <v>949.2703074818033</v>
       </c>
       <c r="C2" t="n">
-        <v>540.2297950422051</v>
+        <v>915.1682387056308</v>
       </c>
       <c r="D2" t="n">
-        <v>508.3604142570537</v>
+        <v>883.2988579204793</v>
       </c>
       <c r="E2" t="n">
-        <v>478.6260734557529</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F2" t="n">
-        <v>454.7990479053647</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>2410.838523748444</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W2" t="n">
-        <v>2005.983069159478</v>
+        <v>990.8772529665349</v>
       </c>
       <c r="X2" t="n">
-        <v>1586.840605738788</v>
+        <v>975.7751935862497</v>
       </c>
       <c r="Y2" t="n">
-        <v>1178.554482038442</v>
+        <v>971.5294739263071</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>277.7880908295411</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>938.6281453713194</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>938.6281453713194</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>938.6281453713194</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>938.6281453713194</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1599.468199913098</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>2593.428272794124</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>2347.54882637258</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>2069.115825625685</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>1421.114771961048</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1149.088367547339</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>903.6966128807517</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>903.6966128807517</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1515.838921374201</v>
+        <v>965.62539879443</v>
       </c>
       <c r="C5" t="n">
-        <v>1481.736852598028</v>
+        <v>527.4829259778533</v>
       </c>
       <c r="D5" t="n">
-        <v>1316.858011710722</v>
+        <v>103.993752941166</v>
       </c>
       <c r="E5" t="n">
-        <v>883.0832668690169</v>
+        <v>74.25941213986525</v>
       </c>
       <c r="F5" t="n">
-        <v>455.2158372782247</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>102.8181913809225</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>726.9189754257008</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>726.9189754257008</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>726.9189754257008</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>726.9189754257008</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1351.019759470479</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1975.120543515257</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488303</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="U5" t="n">
-        <v>2366.341725488303</v>
+        <v>2178.745152974706</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.341725488303</v>
+        <v>1816.128202908532</v>
       </c>
       <c r="W5" t="n">
-        <v>1961.486270899337</v>
+        <v>1815.31315235997</v>
       </c>
       <c r="X5" t="n">
-        <v>1946.384211519051</v>
+        <v>1396.17068893928</v>
       </c>
       <c r="Y5" t="n">
-        <v>1942.138491859109</v>
+        <v>987.8845652389338</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>1058.729261281022</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>992.5572028308845</v>
+        <v>593.0357356940362</v>
       </c>
       <c r="C7" t="n">
-        <v>819.9954913141095</v>
+        <v>420.4740241772612</v>
       </c>
       <c r="D7" t="n">
-        <v>654.1174985156322</v>
+        <v>254.5960313787839</v>
       </c>
       <c r="E7" t="n">
-        <v>484.3594947663694</v>
+        <v>84.83802762952112</v>
       </c>
       <c r="F7" t="n">
-        <v>307.6524407281256</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0611657539532</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933183</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644539</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>832.949238032415</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370972</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434796</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013251</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136787</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="W7" t="n">
-        <v>1657.187246902351</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>1411.795492235764</v>
+        <v>1012.274025098915</v>
       </c>
       <c r="Y7" t="n">
-        <v>1184.375821549872</v>
+        <v>784.8543544130234</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2190.493479979994</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.351007163417</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.441222337862</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>882.6664774961569</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>454.7990479053647</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4849,7 +4849,7 @@
         <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>2616.793050464902</v>
+        <v>2649.897996842637</v>
       </c>
     </row>
     <row r="9">
@@ -4886,13 +4886,13 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
         <v>1058.729261281022</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>797.1100984170748</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C10" t="n">
-        <v>624.5483869002998</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6703941018225</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>458.6703941018225</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>281.9633400635787</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.409306699863</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.266833883286</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.357049057731</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1212.582304216026</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>784.7148746252335</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>383.3170432484974</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171365</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885365</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>132.7256888910787</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>132.7256888910787</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1207.785655143938</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1207.785655143938</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>2333.516638580385</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3313.696305150691</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4142.006179984088</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4688.504965942682</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942682</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.853092126519</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4384.785864999558</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4384.785864999558</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4022.168914933384</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3774.137464305806</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3354.995000885117</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2946.70887718477</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467887</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>398.395094293342</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>304.2746796202957</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>220.8908412364573</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5057515026412</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885365</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>119.8337724793113</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J12" t="n">
-        <v>444.3920974455236</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K12" t="n">
-        <v>444.3920974455236</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>444.3920974455236</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>444.3920974455236</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>444.3920974455236</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>444.3920974455236</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1099.098144071247</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1639.837082703323</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797662</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246045</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1563.375779576647</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576615</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1187.921714638615</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1002.598960371809</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106888</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899095</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1172.828259930735</v>
+        <v>811.7546776883955</v>
       </c>
       <c r="C13" t="n">
-        <v>1000.26654841396</v>
+        <v>811.7546776883955</v>
       </c>
       <c r="D13" t="n">
-        <v>834.3885556154826</v>
+        <v>811.7546776883955</v>
       </c>
       <c r="E13" t="n">
-        <v>664.6305518662199</v>
+        <v>641.9966739391327</v>
       </c>
       <c r="F13" t="n">
-        <v>487.9234978279761</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>322.3322228538038</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>182.4300485441783</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885365</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>180.3497844835435</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>455.1082390546791</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>873.3181208226401</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1332.801988003553</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N13" t="n">
-        <v>1775.060791161198</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O13" t="n">
-        <v>2194.730040386979</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P13" t="n">
-        <v>2542.236934357321</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>2710.429709221653</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>2710.429709221653</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S13" t="n">
-        <v>2710.429709221653</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T13" t="n">
-        <v>2674.873217292374</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U13" t="n">
-        <v>2396.440216545479</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V13" t="n">
-        <v>2109.48470841591</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W13" t="n">
-        <v>1837.458304002201</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X13" t="n">
-        <v>1592.066549335614</v>
+        <v>1230.992967093275</v>
       </c>
       <c r="Y13" t="n">
-        <v>1364.646878649722</v>
+        <v>1003.573296407383</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2230.862362770219</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1792.719889953642</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1356.810105128087</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>923.035360286382</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>495.1679306955898</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>93.77009931885365</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885365</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885365</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>93.77009931885365</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>861.763421750637</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>861.763421750637</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2018.811256961188</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3144.542240397635</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397635</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231031</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189626</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942682</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4688.504965942682</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4511.285227714287</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4252.062925031303</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3889.44597496513</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3484.590520376163</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3065.448056955473</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2657.161933255127</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467887</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>398.395094293342</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>304.2746796202957</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>220.8908412364573</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5057515026412</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885365</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885365</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>418.328424285066</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1099.061944355443</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.061944355443</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1099.061944355443</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1099.061944355443</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1099.061944355443</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1757.009860797662</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797662</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797662</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246045</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1563.375779576647</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576615</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1187.921714638615</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1002.598960371809</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106888</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899095</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1172.828259930735</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>1000.26654841396</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>834.3885556154826</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>664.6305518662199</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>487.9234978279761</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>322.3322228538038</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>182.4300485441783</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885365</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>180.3497844835435</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>455.1082390546791</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>873.3181208226401</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1332.801988003553</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1775.060791161198</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2194.730040386979</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2542.236934357321</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2710.429709221653</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2689.011887927025</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2443.132441505481</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2396.440216545479</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>2109.48470841591</v>
+        <v>1801.895829456619</v>
       </c>
       <c r="W16" t="n">
-        <v>1837.458304002201</v>
+        <v>1529.869425042911</v>
       </c>
       <c r="X16" t="n">
-        <v>1592.066549335614</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y16" t="n">
-        <v>1364.646878649722</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5515,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F19" t="n">
-        <v>105.4320942910045</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5682,43 +5682,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5752,22 +5752,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>350.7514028354357</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1185.101694793614</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2260.161661046473</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3417.209496257024</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3417.209496257024</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
@@ -5782,22 +5782,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5919,40 +5919,40 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="T22" t="n">
-        <v>2538.261260176947</v>
+        <v>2473.041003752038</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497402</v>
+        <v>2194.608003005143</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367833</v>
+        <v>1907.652494875574</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954124</v>
+        <v>1635.626090461865</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.557290287537</v>
+        <v>1390.234335795278</v>
       </c>
       <c r="Y22" t="n">
         <v>1373.137619601648</v>
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1039.174348374283</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1230.99296709327</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,16 +6226,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6308,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6542,19 +6542,19 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>128.3245134312372</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>128.3245134312372</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M30" t="n">
-        <v>128.3245134312372</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N30" t="n">
-        <v>634.526213836947</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O30" t="n">
         <v>1648.327823655249</v>
@@ -6657,13 +6657,13 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y31" t="n">
         <v>1181.319000882661</v>
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1431.851786213076</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2451.623182457406</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.190181710511</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1886.234673580942</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1614.208269167233</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.897341062215</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7162,46 +7162,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L39" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M39" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N39" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O39" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903949</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736198</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751425</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258798</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>286.091284287636</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>120.5000093134636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2520.409306699863</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2082.266833883286</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.357049057731</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.582304216026</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>784.7148746252335</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>383.3170432484974</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171365</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885365</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>529.0247867717716</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1363.37507872995</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1363.37507872995</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1363.37507872995</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2164.362573827329</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397635</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231031</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189626</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942682</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4688.504965942682</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4688.504965942682</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4429.282663259699</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4066.665713193525</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3774.137464305806</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.995000885117</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.70887718477</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467887</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>398.395094293342</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>304.2746796202957</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>220.8908412364573</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>135.5057515026412</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885365</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885365</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>93.77009931885365</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>93.77009931885365</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>93.77009931885365</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>93.77009931885365</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>93.77009931885365</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.571709137155</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1757.009860797662</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
-        <v>1757.009860797662</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797662</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246045</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1563.375779576647</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576615</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1187.921714638615</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1002.598960371809</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106888</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899095</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>944.2661363957848</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C43" t="n">
-        <v>771.7044248790097</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D43" t="n">
-        <v>605.8264320805324</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E43" t="n">
-        <v>436.0684283312697</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F43" t="n">
-        <v>259.361374293026</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G43" t="n">
-        <v>93.77009931885365</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885365</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885365</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>180.3497844835435</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>455.1082390546791</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>873.3181208226401</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1332.801988003553</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1775.060791161198</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2194.730040386979</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2542.236934357321</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2710.429709221653</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225022</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2283.891072803477</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2005.458072056582</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1718.502563927013</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1446.476159513304</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1201.084404846717</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1136.084755114772</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2104.363000055491</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2081.850044510426</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1645.940259684871</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.165514843166</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>784.2980852523735</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>382.9002538756374</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885365</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885365</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>529.0247867717716</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1363.37507872995</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2333.516638580385</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2333.516638580385</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2333.516638580385</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O44" t="n">
-        <v>3313.696305150691</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P44" t="n">
-        <v>4142.006179984088</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q44" t="n">
-        <v>4688.504965942682</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942682</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126519</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.785864999558</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316574</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250401</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661434</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240745</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.662570540399</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467887</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>398.395094293342</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>304.2746796202957</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>220.8908412364573</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>135.5057515026412</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885365</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>119.8337724793113</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>444.3920974455236</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1099.098144071247</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.098144071247</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1099.098144071247</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1099.098144071247</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1099.098144071247</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1099.098144071247</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1639.837082703323</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797662</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246045</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1563.375779576647</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576615</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1187.921714638615</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1002.598960371809</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106888</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899095</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1172.828259930735</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>1000.26654841396</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>834.3885556154826</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>664.6305518662199</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>487.9234978279761</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>322.3322228538038</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>182.4300485441783</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885365</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>180.3497844835435</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>455.1082390546791</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>873.3181208226401</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1332.801988003553</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1775.060791161198</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2194.730040386979</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2542.236934357321</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2710.429709221653</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2689.011887927025</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2689.011887927025</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2443.132441505481</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2164.699440758586</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V46" t="n">
-        <v>2109.48470841591</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W46" t="n">
-        <v>1837.458304002201</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1592.066549335614</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>1364.646878649722</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7996,10 +7996,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>226.6534083847602</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>667.515206607857</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8139,22 +8139,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>52.91495433479339</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>630.404832368463</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388475511</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>39.34908037598487</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>775.7508307391752</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>664.5938549921407</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9181,13 +9181,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>251.0005682471273</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9409,16 +9409,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>638.2669124058198</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9646,22 +9646,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10123,19 +10123,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>257.1019996863001</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,22 +10190,22 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>511.3148488946563</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11065,13 +11065,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,13 +11302,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>979.9409695458944</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>866.2895820207518</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11317,7 +11317,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23314,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>155.2557639217747</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>30.81337269022305</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>42.41901400958</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>229.4233680290246</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>74.15349933190427</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>69.71657238081005</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>143.651671086676</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>208.2197249473392</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>140.7232059832939</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>197.1718905122112</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>197.1718905122112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>141.6500182959537</v>
+        <v>208.2197249473434</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>128.4628789093298</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>111.203933644235</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>160.7958207444074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>411.4732220987967</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>229.4233680290249</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>601309.6849289766</v>
+        <v>586343.8824597758</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>601309.6849289766</v>
+        <v>599026.204883051</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>582038.7262341153</v>
+        <v>620662.2628190465</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>582038.7262341152</v>
+        <v>620662.2628190464</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>620662.2628190464</v>
+        <v>620662.2628190465</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>620662.2628190463</v>
+        <v>620662.2628190464</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>620662.2628190463</v>
+        <v>620662.2628190464</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>582038.7262341154</v>
+        <v>620662.2628190464</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>582038.7262341153</v>
+        <v>620662.2628190464</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.806920546</v>
+        <v>388706.8069205461</v>
       </c>
       <c r="C2" t="n">
         <v>388706.806920546</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.806920546</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="E2" t="n">
-        <v>358201.8164666981</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="F2" t="n">
-        <v>358201.8164666982</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="G2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="H2" t="n">
-        <v>381971.7484995805</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="I2" t="n">
+        <v>381971.7484995804</v>
+      </c>
+      <c r="J2" t="n">
         <v>381971.7484995803</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>381971.7484995803</v>
+      </c>
+      <c r="L2" t="n">
         <v>381971.7484995804</v>
-      </c>
-      <c r="K2" t="n">
-        <v>381971.7484995804</v>
-      </c>
-      <c r="L2" t="n">
-        <v>381971.7484995803</v>
       </c>
       <c r="M2" t="n">
         <v>381971.7484995803</v>
       </c>
       <c r="N2" t="n">
+        <v>381971.7484995805</v>
+      </c>
+      <c r="O2" t="n">
+        <v>381971.7484995803</v>
+      </c>
+      <c r="P2" t="n">
         <v>381971.7484995804</v>
-      </c>
-      <c r="O2" t="n">
-        <v>358201.8164666982</v>
-      </c>
-      <c r="P2" t="n">
-        <v>358201.8164666981</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717479</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260791</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356907</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165421.5418127409</v>
+        <v>206656.9221303546</v>
       </c>
       <c r="C4" t="n">
-        <v>165421.5418127409</v>
+        <v>172408.6053360759</v>
       </c>
       <c r="D4" t="n">
-        <v>165421.5418127409</v>
+        <v>166242.1205712078</v>
       </c>
       <c r="E4" t="n">
-        <v>76603.11165531058</v>
+        <v>82964.77542202524</v>
       </c>
       <c r="F4" t="n">
-        <v>76603.11165531057</v>
+        <v>82964.77542202524</v>
       </c>
       <c r="G4" t="n">
-        <v>81686.4213255822</v>
+        <v>82964.77542202524</v>
       </c>
       <c r="H4" t="n">
-        <v>81686.42132558221</v>
+        <v>82964.77542202524</v>
       </c>
       <c r="I4" t="n">
-        <v>81686.4213255822</v>
+        <v>82964.77542202522</v>
       </c>
       <c r="J4" t="n">
-        <v>81686.4213255822</v>
+        <v>82964.77542202522</v>
       </c>
       <c r="K4" t="n">
-        <v>81686.4213255822</v>
+        <v>82964.77542202522</v>
       </c>
       <c r="L4" t="n">
-        <v>81686.42132558221</v>
+        <v>82964.77542202522</v>
       </c>
       <c r="M4" t="n">
-        <v>81686.42132558218</v>
+        <v>82964.77542202522</v>
       </c>
       <c r="N4" t="n">
-        <v>81686.42132558218</v>
+        <v>82964.77542202524</v>
       </c>
       <c r="O4" t="n">
-        <v>76603.11165531058</v>
+        <v>82964.77542202524</v>
       </c>
       <c r="P4" t="n">
-        <v>76603.11165531058</v>
+        <v>82964.77542202524</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232877</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232877</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232877</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232877</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74626.95803799741</v>
+        <v>-19566.20400674073</v>
       </c>
       <c r="C6" t="n">
-        <v>149072.7405460475</v>
+        <v>77754.21988145165</v>
       </c>
       <c r="D6" t="n">
-        <v>149072.7405460475</v>
+        <v>136724.5662375977</v>
       </c>
       <c r="E6" t="n">
-        <v>59667.67575731094</v>
+        <v>38701.38185688654</v>
       </c>
       <c r="F6" t="n">
-        <v>210333.4293290589</v>
+        <v>221056.4910779362</v>
       </c>
       <c r="G6" t="n">
-        <v>193477.2793955978</v>
+        <v>221056.4910779363</v>
       </c>
       <c r="H6" t="n">
-        <v>222567.0885682058</v>
+        <v>221056.4910779363</v>
       </c>
       <c r="I6" t="n">
-        <v>222567.0885682056</v>
+        <v>221056.4910779363</v>
       </c>
       <c r="J6" t="n">
-        <v>47915.73985049958</v>
+        <v>110042.025732946</v>
       </c>
       <c r="K6" t="n">
-        <v>222567.0885682057</v>
+        <v>168010.6364391638</v>
       </c>
       <c r="L6" t="n">
-        <v>222567.0885682056</v>
+        <v>211664.1893513137</v>
       </c>
       <c r="M6" t="n">
-        <v>96816.00023251493</v>
+        <v>68856.32013994847</v>
       </c>
       <c r="N6" t="n">
-        <v>222567.0885682057</v>
+        <v>221056.4910779363</v>
       </c>
       <c r="O6" t="n">
-        <v>210333.4293290589</v>
+        <v>221056.4910779361</v>
       </c>
       <c r="P6" t="n">
-        <v>210333.4293290588</v>
+        <v>221056.4910779362</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.126241485671</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.126241485671</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.126241485671</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.126241485671</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778136</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990748</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778136</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778136</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990748</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>223.8561827421955</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>298.4029682737057</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>102.9863699957348</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>10.77798151009785</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.29640567097954</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>268.3206344988662</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>140.8783988682177</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>248.5691704774796</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>253.8775775763891</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>367.2261030860415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.07653710780747</v>
+        <v>52.01701577190849</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-5.053384223590637e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28280,7 +28280,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28754,7 +28754,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28991,7 +28991,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>226.6534083847602</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>667.515206607857</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>52.91495433479339</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047205</v>
+        <v>630.404832368463</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,7 +35102,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35114,7 +35114,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388475511</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>39.34908037598487</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35433,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645627</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>775.7508307391752</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>664.5938549921407</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35819,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35901,13 +35901,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36050,7 +36050,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645627</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>251.0005682471273</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36202,7 +36202,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>638.2669124058198</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36287,13 +36287,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645625</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36676,7 +36676,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36843,19 +36843,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>257.1019996863001</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>511.3148488946563</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132072</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37782,16 +37782,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,16 +37873,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37952,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38019,16 +38019,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>979.9409695458944</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>866.2895820207518</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38037,7 +38037,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38189,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
